--- a/data/pca/factorExposure/factorExposure_2010-01-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-12.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.003838411880835425</v>
+        <v>0.01719957681318866</v>
       </c>
       <c r="C2">
-        <v>-0.01675607478806055</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001214904052887571</v>
+      </c>
+      <c r="D2">
+        <v>0.005572619341694605</v>
+      </c>
+      <c r="E2">
+        <v>-0.0005413381293116027</v>
+      </c>
+      <c r="F2">
+        <v>-0.01092616610481226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.02953368201866808</v>
+        <v>0.09451140507310471</v>
       </c>
       <c r="C4">
-        <v>-0.1262927095520589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01566463662630701</v>
+      </c>
+      <c r="D4">
+        <v>0.08304680092507805</v>
+      </c>
+      <c r="E4">
+        <v>0.02915249888806706</v>
+      </c>
+      <c r="F4">
+        <v>0.03033738771876547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03624001375930803</v>
+        <v>0.1573058607646929</v>
       </c>
       <c r="C6">
-        <v>-0.1102463338506597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.02537630490221808</v>
+      </c>
+      <c r="D6">
+        <v>-0.02362653451235348</v>
+      </c>
+      <c r="E6">
+        <v>0.009173100536038137</v>
+      </c>
+      <c r="F6">
+        <v>0.04710466192146827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.009528568501880939</v>
+        <v>0.06095450918974101</v>
       </c>
       <c r="C7">
-        <v>-0.07634071594432491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0008700267938325484</v>
+      </c>
+      <c r="D7">
+        <v>0.05234138027226205</v>
+      </c>
+      <c r="E7">
+        <v>0.01081946524420153</v>
+      </c>
+      <c r="F7">
+        <v>0.0436196667393951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.003101649953063315</v>
+        <v>0.0579489658861931</v>
       </c>
       <c r="C8">
-        <v>-0.05868169264415485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01346265126620831</v>
+      </c>
+      <c r="D8">
+        <v>0.03223214918584591</v>
+      </c>
+      <c r="E8">
+        <v>0.01709067229634848</v>
+      </c>
+      <c r="F8">
+        <v>-0.02844197010743304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02471462338087298</v>
+        <v>0.07237207469768632</v>
       </c>
       <c r="C9">
-        <v>-0.1032083268572552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01158738670242516</v>
+      </c>
+      <c r="D9">
+        <v>0.08442363436982012</v>
+      </c>
+      <c r="E9">
+        <v>0.02354256121688022</v>
+      </c>
+      <c r="F9">
+        <v>0.04656814013811181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.01065356248275522</v>
+        <v>0.09323300529810648</v>
       </c>
       <c r="C10">
-        <v>-0.01906579580328636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.019487640692802</v>
+      </c>
+      <c r="D10">
+        <v>-0.1709956887365356</v>
+      </c>
+      <c r="E10">
+        <v>-0.0375948049222485</v>
+      </c>
+      <c r="F10">
+        <v>-0.05444824211050287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.02877942914299063</v>
+        <v>0.08764998307174766</v>
       </c>
       <c r="C11">
-        <v>-0.1122506001497671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01102631345242523</v>
+      </c>
+      <c r="D11">
+        <v>0.1161456626330719</v>
+      </c>
+      <c r="E11">
+        <v>0.04721322571794687</v>
+      </c>
+      <c r="F11">
+        <v>0.0188167825440669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02621154208157368</v>
+        <v>0.09262879671105928</v>
       </c>
       <c r="C12">
-        <v>-0.1220218033642128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.0081059974459393</v>
+      </c>
+      <c r="D12">
+        <v>0.130210237018208</v>
+      </c>
+      <c r="E12">
+        <v>0.04761229892767473</v>
+      </c>
+      <c r="F12">
+        <v>0.02375981593756906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.009115064759248037</v>
+        <v>0.04288070749678714</v>
       </c>
       <c r="C13">
-        <v>-0.04336673013574033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003593848483146662</v>
+      </c>
+      <c r="D13">
+        <v>0.04967956630487512</v>
+      </c>
+      <c r="E13">
+        <v>-0.01017795731674017</v>
+      </c>
+      <c r="F13">
+        <v>0.00163803918778896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01623544387036444</v>
+        <v>0.02278783835586001</v>
       </c>
       <c r="C14">
-        <v>-0.02595008965493454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01398484021361513</v>
+      </c>
+      <c r="D14">
+        <v>0.03396617320834603</v>
+      </c>
+      <c r="E14">
+        <v>0.0175132820611967</v>
+      </c>
+      <c r="F14">
+        <v>0.01362186865225949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01016247629789562</v>
+        <v>0.0313572779247427</v>
       </c>
       <c r="C15">
-        <v>-0.02789327635820937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005004224469715168</v>
+      </c>
+      <c r="D15">
+        <v>0.04530187099860986</v>
+      </c>
+      <c r="E15">
+        <v>0.006735420996120837</v>
+      </c>
+      <c r="F15">
+        <v>0.02116723121453346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.01806565858726037</v>
+        <v>0.07344646163892797</v>
       </c>
       <c r="C16">
-        <v>-0.1148090317791582</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.002077913889180266</v>
+      </c>
+      <c r="D16">
+        <v>0.1259433838624911</v>
+      </c>
+      <c r="E16">
+        <v>0.06214736550923947</v>
+      </c>
+      <c r="F16">
+        <v>0.02213430465245806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02822810315629739</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.003454035398218023</v>
+      </c>
+      <c r="D18">
+        <v>0.0208567760797471</v>
+      </c>
+      <c r="E18">
+        <v>-0.006405472045809783</v>
+      </c>
+      <c r="F18">
+        <v>-0.005433692374765594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01145284287525864</v>
+        <v>0.0610716752205352</v>
       </c>
       <c r="C20">
-        <v>-0.06816975590364334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0006670929687783</v>
+      </c>
+      <c r="D20">
+        <v>0.0765574170568132</v>
+      </c>
+      <c r="E20">
+        <v>0.05594584798062149</v>
+      </c>
+      <c r="F20">
+        <v>0.02161565934648948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01233111940552042</v>
+        <v>0.03975877386985134</v>
       </c>
       <c r="C21">
-        <v>-0.02092831050212066</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006583196249128729</v>
+      </c>
+      <c r="D21">
+        <v>0.03684970805356883</v>
+      </c>
+      <c r="E21">
+        <v>-0.005968507977464807</v>
+      </c>
+      <c r="F21">
+        <v>-0.0262893040253711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.003836755233649679</v>
+        <v>0.04425315451756024</v>
       </c>
       <c r="C22">
-        <v>-0.02769181220868333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.001062371560891637</v>
+      </c>
+      <c r="D22">
+        <v>0.001324055461011574</v>
+      </c>
+      <c r="E22">
+        <v>0.02744075530661538</v>
+      </c>
+      <c r="F22">
+        <v>-0.02979105600191907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.003825076073769838</v>
+        <v>0.04423820766427192</v>
       </c>
       <c r="C23">
-        <v>-0.0276261160568486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.001058081615733883</v>
+      </c>
+      <c r="D23">
+        <v>0.001329261084897659</v>
+      </c>
+      <c r="E23">
+        <v>0.02764257601627978</v>
+      </c>
+      <c r="F23">
+        <v>-0.02975640662732792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.01825216663229191</v>
+        <v>0.07978847067869038</v>
       </c>
       <c r="C24">
-        <v>-0.1176776786115777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.002676482419658338</v>
+      </c>
+      <c r="D24">
+        <v>0.1200371410328283</v>
+      </c>
+      <c r="E24">
+        <v>0.05045055202654444</v>
+      </c>
+      <c r="F24">
+        <v>0.02275445019175349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02367693132418615</v>
+        <v>0.0847190777784662</v>
       </c>
       <c r="C25">
-        <v>-0.1210098054936752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.004838583635154061</v>
+      </c>
+      <c r="D25">
+        <v>0.1089223142291246</v>
+      </c>
+      <c r="E25">
+        <v>0.03341047809350403</v>
+      </c>
+      <c r="F25">
+        <v>0.02406033437220348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02324455012764091</v>
+        <v>0.05749647931598388</v>
       </c>
       <c r="C26">
-        <v>-0.05155775885234039</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01464322850932464</v>
+      </c>
+      <c r="D26">
+        <v>0.04133157897681645</v>
+      </c>
+      <c r="E26">
+        <v>0.027956935833793</v>
+      </c>
+      <c r="F26">
+        <v>-0.01114176395343668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,164 +1228,299 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.003211682742870019</v>
+        <v>0.140283899152501</v>
       </c>
       <c r="C28">
-        <v>-0.01415743387449805</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.01884853361139093</v>
+      </c>
+      <c r="D28">
+        <v>-0.2644133775941392</v>
+      </c>
+      <c r="E28">
+        <v>-0.06830388943179364</v>
+      </c>
+      <c r="F28">
+        <v>0.008252483708464283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01292848113728554</v>
+        <v>0.02720331069092545</v>
       </c>
       <c r="C29">
-        <v>-0.03106083919311448</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.008161869016748084</v>
+      </c>
+      <c r="D29">
+        <v>0.03297299353342351</v>
+      </c>
+      <c r="E29">
+        <v>0.01142033067033206</v>
+      </c>
+      <c r="F29">
+        <v>-0.01117770267965795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.01514150939877616</v>
+        <v>0.0623202104759853</v>
       </c>
       <c r="C30">
-        <v>-0.1275915987156485</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.004139812611700466</v>
+      </c>
+      <c r="D30">
+        <v>0.08722739836750021</v>
+      </c>
+      <c r="E30">
+        <v>0.02126737125886443</v>
+      </c>
+      <c r="F30">
+        <v>0.08008651351089144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0215314200769478</v>
+        <v>0.04944408746072725</v>
       </c>
       <c r="C31">
-        <v>-0.03745231326711621</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01516859830446432</v>
+      </c>
+      <c r="D31">
+        <v>0.02529970084538043</v>
+      </c>
+      <c r="E31">
+        <v>0.02755763449420618</v>
+      </c>
+      <c r="F31">
+        <v>-0.002766819973642629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.006277187102746653</v>
+        <v>0.04900009534970044</v>
       </c>
       <c r="C32">
-        <v>-0.05503404370214544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001323568380785868</v>
+      </c>
+      <c r="D32">
+        <v>0.03698501806362273</v>
+      </c>
+      <c r="E32">
+        <v>0.03122991887426588</v>
+      </c>
+      <c r="F32">
+        <v>-0.0001121894073506134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0219202043679912</v>
+        <v>0.09056120737303945</v>
       </c>
       <c r="C33">
-        <v>-0.1155586068043964</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008286600319251564</v>
+      </c>
+      <c r="D33">
+        <v>0.09846614614087229</v>
+      </c>
+      <c r="E33">
+        <v>0.04536223325827046</v>
+      </c>
+      <c r="F33">
+        <v>0.03438043366328673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.02561268290662682</v>
+        <v>0.06796562476547706</v>
       </c>
       <c r="C34">
-        <v>-0.09964497050172008</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01128240501987486</v>
+      </c>
+      <c r="D34">
+        <v>0.1058802690914167</v>
+      </c>
+      <c r="E34">
+        <v>0.03517313155620913</v>
+      </c>
+      <c r="F34">
+        <v>0.03135422018805304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003779043367088974</v>
+        <v>0.0235394053442218</v>
       </c>
       <c r="C35">
-        <v>-0.0156507565741304</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.00235276074400183</v>
+      </c>
+      <c r="D35">
+        <v>0.01233081957538384</v>
+      </c>
+      <c r="E35">
+        <v>0.01147622813831884</v>
+      </c>
+      <c r="F35">
+        <v>0.0006239478912530008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01050290031828411</v>
+        <v>0.02610044951780922</v>
       </c>
       <c r="C36">
-        <v>-0.02957786895253348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007144591750366489</v>
+      </c>
+      <c r="D36">
+        <v>0.04009476767338795</v>
+      </c>
+      <c r="E36">
+        <v>0.01567670083687732</v>
+      </c>
+      <c r="F36">
+        <v>0.01461079832158825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0001399846820129801</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-5.477177223846797e-05</v>
+      </c>
+      <c r="D37">
+        <v>5.451613962783338e-06</v>
+      </c>
+      <c r="E37">
+        <v>3.843657220884259e-05</v>
+      </c>
+      <c r="F37">
+        <v>0.0001806225591879661</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0005221468645044358</v>
+        <v>0.001254739263510197</v>
       </c>
       <c r="C38">
-        <v>-0.004013154234623285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0001730602475161866</v>
+      </c>
+      <c r="D38">
+        <v>0.0007253044885167733</v>
+      </c>
+      <c r="E38">
+        <v>0.0008968170226745236</v>
+      </c>
+      <c r="F38">
+        <v>-0.0006954305764782924</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04129868724168517</v>
+        <v>0.1073137300204626</v>
       </c>
       <c r="C39">
-        <v>-0.1816122727607451</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01654782670364959</v>
+      </c>
+      <c r="D39">
+        <v>0.1524332193546989</v>
+      </c>
+      <c r="E39">
+        <v>0.05956259735229914</v>
+      </c>
+      <c r="F39">
+        <v>0.02660148873049428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01122692006788766</v>
+        <v>0.03981020145386085</v>
       </c>
       <c r="C40">
-        <v>-0.01562225385085809</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.007231404389207864</v>
+      </c>
+      <c r="D40">
+        <v>0.0321117411138342</v>
+      </c>
+      <c r="E40">
+        <v>0.003061221728704068</v>
+      </c>
+      <c r="F40">
+        <v>-0.01672352965184159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01100414557836412</v>
+        <v>0.02636654159188963</v>
       </c>
       <c r="C41">
-        <v>-0.02122195619113455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.00652827250037078</v>
+      </c>
+      <c r="D41">
+        <v>0.01141543729079954</v>
+      </c>
+      <c r="E41">
+        <v>0.01245280540264145</v>
+      </c>
+      <c r="F41">
+        <v>-0.006967661190188977</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01309005629636363</v>
+        <v>0.0398248003496939</v>
       </c>
       <c r="C43">
-        <v>-0.02777834347828192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.006715760607274668</v>
+      </c>
+      <c r="D43">
+        <v>0.02119071375505789</v>
+      </c>
+      <c r="E43">
+        <v>0.02524124138291126</v>
+      </c>
+      <c r="F43">
+        <v>-0.01264269719561201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03055060501019679</v>
+        <v>0.07796451576894937</v>
       </c>
       <c r="C44">
-        <v>-0.1371477154466233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.02061188935247235</v>
+      </c>
+      <c r="D44">
+        <v>0.09929952359618219</v>
+      </c>
+      <c r="E44">
+        <v>0.06751510474742128</v>
+      </c>
+      <c r="F44">
+        <v>0.1513366010810407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005592609391953883</v>
+        <v>0.02406854908171496</v>
       </c>
       <c r="C46">
-        <v>-0.004794151403691753</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.003733543112857793</v>
+      </c>
+      <c r="D46">
+        <v>0.01201005228566856</v>
+      </c>
+      <c r="E46">
+        <v>0.02160525391097048</v>
+      </c>
+      <c r="F46">
+        <v>-0.004810317785793946</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01003207650881301</v>
+        <v>0.05042738782545809</v>
       </c>
       <c r="C47">
-        <v>-0.03530456501142455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.003529960927827201</v>
+      </c>
+      <c r="D47">
+        <v>0.01218475760089485</v>
+      </c>
+      <c r="E47">
+        <v>0.02263267340826898</v>
+      </c>
+      <c r="F47">
+        <v>-0.03337655722725896</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01158642560230221</v>
+        <v>0.04884082936208585</v>
       </c>
       <c r="C48">
-        <v>-0.0506914538010834</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.002557308031053365</v>
+      </c>
+      <c r="D48">
+        <v>0.05039208736281849</v>
+      </c>
+      <c r="E48">
+        <v>-0.0066532690795986</v>
+      </c>
+      <c r="F48">
+        <v>0.008529390443360044</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.03531677933782987</v>
+        <v>0.2007702759837526</v>
       </c>
       <c r="C49">
-        <v>-0.1996501266138902</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01864817910854506</v>
+      </c>
+      <c r="D49">
+        <v>-0.01098960459747275</v>
+      </c>
+      <c r="E49">
+        <v>0.03046504047415307</v>
+      </c>
+      <c r="F49">
+        <v>0.03995039613124098</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.01805990686391566</v>
+        <v>0.049569829590703</v>
       </c>
       <c r="C50">
-        <v>-0.04281324387691564</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01116655913380643</v>
+      </c>
+      <c r="D50">
+        <v>0.02446743668128337</v>
+      </c>
+      <c r="E50">
+        <v>0.0298509280127098</v>
+      </c>
+      <c r="F50">
+        <v>0.007731053086638611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0004895166300610426</v>
+        <v>0.001124195781084693</v>
       </c>
       <c r="C51">
-        <v>-0.003144948079285925</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.0003207200512821271</v>
+      </c>
+      <c r="D51">
+        <v>-0.000893803022533639</v>
+      </c>
+      <c r="E51">
+        <v>0.0001995790378450527</v>
+      </c>
+      <c r="F51">
+        <v>0.003228351407423123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.02895864017223427</v>
+        <v>0.1465754362827598</v>
       </c>
       <c r="C52">
-        <v>-0.1506685861428033</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.01526499146212456</v>
+      </c>
+      <c r="D52">
+        <v>0.0451410070369528</v>
+      </c>
+      <c r="E52">
+        <v>0.02035516665996444</v>
+      </c>
+      <c r="F52">
+        <v>0.04261355267232739</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.0299158319248086</v>
+        <v>0.1742340403937245</v>
       </c>
       <c r="C53">
-        <v>-0.1711651772418574</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01861529282911087</v>
+      </c>
+      <c r="D53">
+        <v>0.004228024148344092</v>
+      </c>
+      <c r="E53">
+        <v>0.03124281113894204</v>
+      </c>
+      <c r="F53">
+        <v>0.0758891972120937</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01523979028981944</v>
+        <v>0.02176947530830574</v>
       </c>
       <c r="C54">
-        <v>-0.04467212846109244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.0125242151729055</v>
+      </c>
+      <c r="D54">
+        <v>0.03314962569223924</v>
+      </c>
+      <c r="E54">
+        <v>0.0169159135862852</v>
+      </c>
+      <c r="F54">
+        <v>-0.003444166277295846</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02345282805883831</v>
+        <v>0.1142409131808166</v>
       </c>
       <c r="C55">
-        <v>-0.0856757179654123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.0164113073040436</v>
+      </c>
+      <c r="D55">
+        <v>0.009040511431513236</v>
+      </c>
+      <c r="E55">
+        <v>0.02807829546059965</v>
+      </c>
+      <c r="F55">
+        <v>0.04828001316912449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03096954921629184</v>
+        <v>0.1786232374589156</v>
       </c>
       <c r="C56">
-        <v>-0.163832931467252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01593006361942934</v>
+      </c>
+      <c r="D56">
+        <v>0.0006799785680691542</v>
+      </c>
+      <c r="E56">
+        <v>0.03643522892089531</v>
+      </c>
+      <c r="F56">
+        <v>0.05442545232643418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01260969826101631</v>
+        <v>0.04619648795442728</v>
       </c>
       <c r="C58">
-        <v>-0.04881680856445997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001028526022481501</v>
+      </c>
+      <c r="D58">
+        <v>0.0671903220711305</v>
+      </c>
+      <c r="E58">
+        <v>0.02744420610898503</v>
+      </c>
+      <c r="F58">
+        <v>-0.03739386905596306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01000103276798998</v>
+        <v>0.1684661295010585</v>
       </c>
       <c r="C59">
-        <v>-0.06755136233452518</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.01958535314739073</v>
+      </c>
+      <c r="D59">
+        <v>-0.2221318713668792</v>
+      </c>
+      <c r="E59">
+        <v>-0.04553459179678417</v>
+      </c>
+      <c r="F59">
+        <v>-0.03473155954826285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.02291810910096212</v>
+        <v>0.2340247368061647</v>
       </c>
       <c r="C60">
-        <v>-0.275413771869511</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.002747879116626779</v>
+      </c>
+      <c r="D60">
+        <v>0.03910652105634304</v>
+      </c>
+      <c r="E60">
+        <v>0.01052671969494338</v>
+      </c>
+      <c r="F60">
+        <v>-0.002452847604045352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.02881376748273933</v>
+        <v>0.08328424490771752</v>
       </c>
       <c r="C61">
-        <v>-0.1312106439997537</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01254340435278448</v>
+      </c>
+      <c r="D61">
+        <v>0.1155433842265803</v>
+      </c>
+      <c r="E61">
+        <v>0.03918881926322569</v>
+      </c>
+      <c r="F61">
+        <v>0.009871691334207957</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.03311201872067611</v>
+        <v>0.1702991299798354</v>
       </c>
       <c r="C62">
-        <v>-0.1644690042674985</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.01930405709147492</v>
+      </c>
+      <c r="D62">
+        <v>0.006728888426153353</v>
+      </c>
+      <c r="E62">
+        <v>0.0354808283114589</v>
+      </c>
+      <c r="F62">
+        <v>0.03615806302616744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01120420283350137</v>
+        <v>0.04447672900453101</v>
       </c>
       <c r="C63">
-        <v>-0.05526615487354741</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002391312613706323</v>
+      </c>
+      <c r="D63">
+        <v>0.05833028926821388</v>
+      </c>
+      <c r="E63">
+        <v>0.02028376702780224</v>
+      </c>
+      <c r="F63">
+        <v>0.004674606353867299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02232193941009588</v>
+        <v>0.1110357404542395</v>
       </c>
       <c r="C64">
-        <v>-0.09930956543098234</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01165839397133573</v>
+      </c>
+      <c r="D64">
+        <v>0.04205135728110503</v>
+      </c>
+      <c r="E64">
+        <v>0.0232785837014323</v>
+      </c>
+      <c r="F64">
+        <v>0.0265487772464265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.036676211979168</v>
+        <v>0.1472252656191255</v>
       </c>
       <c r="C65">
-        <v>-0.102576493801436</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03233898477443591</v>
+      </c>
+      <c r="D65">
+        <v>-0.04251605210966981</v>
+      </c>
+      <c r="E65">
+        <v>0.003268970354895254</v>
+      </c>
+      <c r="F65">
+        <v>0.03966226247578108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.0399148596251527</v>
+        <v>0.1276583196792656</v>
       </c>
       <c r="C66">
-        <v>-0.2120589489605277</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01464008498296545</v>
+      </c>
+      <c r="D66">
+        <v>0.140451509489551</v>
+      </c>
+      <c r="E66">
+        <v>0.06732193465212469</v>
+      </c>
+      <c r="F66">
+        <v>0.02975700029763163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01415006334405382</v>
+        <v>0.06273303678518065</v>
       </c>
       <c r="C67">
-        <v>-0.06062861249826928</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003154785295005711</v>
+      </c>
+      <c r="D67">
+        <v>0.05410938521695591</v>
+      </c>
+      <c r="E67">
+        <v>0.01723256475668582</v>
+      </c>
+      <c r="F67">
+        <v>-0.03265691336443484</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01432169846994731</v>
+        <v>0.115428101249738</v>
       </c>
       <c r="C68">
-        <v>-0.01203424788795752</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.02889427720433047</v>
+      </c>
+      <c r="D68">
+        <v>-0.2598488278310108</v>
+      </c>
+      <c r="E68">
+        <v>-0.08639184668578323</v>
+      </c>
+      <c r="F68">
+        <v>0.005174934826351516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.005605993195749157</v>
+        <v>0.03965158513815253</v>
       </c>
       <c r="C69">
-        <v>-0.0322967212500221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.001280065781430328</v>
+      </c>
+      <c r="D69">
+        <v>0.007094434427030415</v>
+      </c>
+      <c r="E69">
+        <v>0.02323416883775804</v>
+      </c>
+      <c r="F69">
+        <v>-0.000864554024788459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.001669502540233578</v>
+        <v>0.06333620521228633</v>
       </c>
       <c r="C70">
-        <v>-0.02850867505996528</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02817602351098533</v>
+      </c>
+      <c r="D70">
+        <v>0.02633588598417282</v>
+      </c>
+      <c r="E70">
+        <v>-0.0430413888476426</v>
+      </c>
+      <c r="F70">
+        <v>-0.1864549040921507</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.01767479599841092</v>
+        <v>0.1345446616149958</v>
       </c>
       <c r="C71">
-        <v>-0.01475401802984815</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03391401251330606</v>
+      </c>
+      <c r="D71">
+        <v>-0.2742060111728585</v>
+      </c>
+      <c r="E71">
+        <v>-0.09634796021358118</v>
+      </c>
+      <c r="F71">
+        <v>0.01115858894183709</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.03483455712635498</v>
+        <v>0.1406010421567628</v>
       </c>
       <c r="C72">
-        <v>-0.1154308573599417</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.02582096045047277</v>
+      </c>
+      <c r="D72">
+        <v>-7.336958957279714e-05</v>
+      </c>
+      <c r="E72">
+        <v>0.03981850037718595</v>
+      </c>
+      <c r="F72">
+        <v>0.03498713532611298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.03201013808909281</v>
+        <v>0.2010819826535942</v>
       </c>
       <c r="C73">
-        <v>-0.201215578201444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01298553581268722</v>
+      </c>
+      <c r="D73">
+        <v>0.01433593867269758</v>
+      </c>
+      <c r="E73">
+        <v>0.06446037339504201</v>
+      </c>
+      <c r="F73">
+        <v>0.0392250360137165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.01897619983535149</v>
+        <v>0.09497544906097929</v>
       </c>
       <c r="C74">
-        <v>-0.1155205204633676</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01307593607388591</v>
+      </c>
+      <c r="D74">
+        <v>0.01813284167296128</v>
+      </c>
+      <c r="E74">
+        <v>0.04473328877617154</v>
+      </c>
+      <c r="F74">
+        <v>0.05755672508187464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04039965987168209</v>
+        <v>0.1290086164609571</v>
       </c>
       <c r="C75">
-        <v>-0.1363999592785566</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02752959340497812</v>
+      </c>
+      <c r="D75">
+        <v>0.02979443222798729</v>
+      </c>
+      <c r="E75">
+        <v>0.058760328454058</v>
+      </c>
+      <c r="F75">
+        <v>0.01940022094548912</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0004275082112898491</v>
+        <v>0.001149770516062138</v>
       </c>
       <c r="C76">
-        <v>-0.003723598806856764</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.000311419048802737</v>
+      </c>
+      <c r="D76">
+        <v>-0.0008827152436595765</v>
+      </c>
+      <c r="E76">
+        <v>0.0002498491096796564</v>
+      </c>
+      <c r="F76">
+        <v>0.001333109417886661</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02397739010096185</v>
+        <v>0.08180617928468184</v>
       </c>
       <c r="C77">
-        <v>-0.1073022991606354</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.008539679558662354</v>
+      </c>
+      <c r="D77">
+        <v>0.1165906754047948</v>
+      </c>
+      <c r="E77">
+        <v>0.0398403555997723</v>
+      </c>
+      <c r="F77">
+        <v>0.02633597581203813</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.05232758893778763</v>
+        <v>0.1013435857045639</v>
       </c>
       <c r="C78">
-        <v>-0.1296792221101325</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03937686262142293</v>
+      </c>
+      <c r="D78">
+        <v>0.1161537860534708</v>
+      </c>
+      <c r="E78">
+        <v>0.07797172314164107</v>
+      </c>
+      <c r="F78">
+        <v>0.04517680579216716</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.03500971933830875</v>
+        <v>0.164790799706632</v>
       </c>
       <c r="C79">
-        <v>-0.1468470833809542</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02211152934924153</v>
+      </c>
+      <c r="D79">
+        <v>0.01512154631305198</v>
+      </c>
+      <c r="E79">
+        <v>0.04672843450237591</v>
+      </c>
+      <c r="F79">
+        <v>0.01316678317930272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.008211038321573183</v>
+        <v>0.08230048879340304</v>
       </c>
       <c r="C80">
-        <v>-0.09462982748002166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.0006188045475280256</v>
+      </c>
+      <c r="D80">
+        <v>0.0569457078675922</v>
+      </c>
+      <c r="E80">
+        <v>0.03624173983439114</v>
+      </c>
+      <c r="F80">
+        <v>-0.02551188234182304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04205710393869554</v>
+        <v>0.1231459100334665</v>
       </c>
       <c r="C81">
-        <v>-0.1484688931502803</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03145342142599718</v>
+      </c>
+      <c r="D81">
+        <v>0.0147564886272912</v>
+      </c>
+      <c r="E81">
+        <v>0.05864755436150352</v>
+      </c>
+      <c r="F81">
+        <v>0.01888247462009618</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.03618302827893404</v>
+        <v>0.1659469647676765</v>
       </c>
       <c r="C82">
-        <v>-0.1685022458255634</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.02383397244741937</v>
+      </c>
+      <c r="D82">
+        <v>0.004936077008470585</v>
+      </c>
+      <c r="E82">
+        <v>0.02929224303101306</v>
+      </c>
+      <c r="F82">
+        <v>0.08176656000709445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01805324993949033</v>
+        <v>0.06176115629650084</v>
       </c>
       <c r="C83">
-        <v>-0.07019260452167833</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003273081792052138</v>
+      </c>
+      <c r="D83">
+        <v>0.04958559141332843</v>
+      </c>
+      <c r="E83">
+        <v>0.005857378359049137</v>
+      </c>
+      <c r="F83">
+        <v>-0.03233857175819219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02518133622023579</v>
+        <v>0.05853414214457581</v>
       </c>
       <c r="C84">
-        <v>-0.07596222598422653</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01092876728854558</v>
+      </c>
+      <c r="D84">
+        <v>0.06485855726592309</v>
+      </c>
+      <c r="E84">
+        <v>0.007399224974944603</v>
+      </c>
+      <c r="F84">
+        <v>0.004558733670555396</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.03657592007105281</v>
+        <v>0.1377708384595637</v>
       </c>
       <c r="C85">
-        <v>-0.1226200842380251</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02740712280906734</v>
+      </c>
+      <c r="D85">
+        <v>0.0106973774418761</v>
+      </c>
+      <c r="E85">
+        <v>0.03943800566417825</v>
+      </c>
+      <c r="F85">
+        <v>0.04706719225916327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.007453056968536584</v>
+        <v>0.09584147123792339</v>
       </c>
       <c r="C86">
-        <v>-0.09541286026609722</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.00671925847280128</v>
+      </c>
+      <c r="D86">
+        <v>0.04024178475130104</v>
+      </c>
+      <c r="E86">
+        <v>0.2072456831374091</v>
+      </c>
+      <c r="F86">
+        <v>-0.9103659664243151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.03795192130136175</v>
+        <v>0.09680420035400944</v>
       </c>
       <c r="C87">
-        <v>-0.1062039844317804</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02046291214990154</v>
+      </c>
+      <c r="D87">
+        <v>0.09548514559535237</v>
+      </c>
+      <c r="E87">
+        <v>-0.05108002642087082</v>
+      </c>
+      <c r="F87">
+        <v>0.05151737474733883</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01247633452003237</v>
+        <v>0.06087980354144428</v>
       </c>
       <c r="C88">
-        <v>-0.05981345761511866</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.002382567674046011</v>
+      </c>
+      <c r="D88">
+        <v>0.05007556090358416</v>
+      </c>
+      <c r="E88">
+        <v>0.02502045759066975</v>
+      </c>
+      <c r="F88">
+        <v>0.01289050085456706</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.0004734620482799776</v>
+        <v>0.131750576758141</v>
       </c>
       <c r="C89">
-        <v>-0.03028990468571271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.01162605761431125</v>
+      </c>
+      <c r="D89">
+        <v>-0.2523339088043521</v>
+      </c>
+      <c r="E89">
+        <v>-0.09101984623247161</v>
+      </c>
+      <c r="F89">
+        <v>-0.008614511643557038</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.01629462524666627</v>
+        <v>0.1472363397912616</v>
       </c>
       <c r="C90">
-        <v>-0.01556908476929304</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.02968964959577359</v>
+      </c>
+      <c r="D90">
+        <v>-0.2668060659102499</v>
+      </c>
+      <c r="E90">
+        <v>-0.1108315485037314</v>
+      </c>
+      <c r="F90">
+        <v>-0.002858189247000252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.0221441209385308</v>
+        <v>0.1198067061356508</v>
       </c>
       <c r="C91">
-        <v>-0.09499787697772694</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.0183530660722259</v>
+      </c>
+      <c r="D91">
+        <v>-0.01296621610972857</v>
+      </c>
+      <c r="E91">
+        <v>0.05670078526726627</v>
+      </c>
+      <c r="F91">
+        <v>-0.001074734020883118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.0003013348935934751</v>
+        <v>0.1460987174071764</v>
       </c>
       <c r="C92">
-        <v>-0.0287502129843286</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.02161151783362884</v>
+      </c>
+      <c r="D92">
+        <v>-0.2909426185474468</v>
+      </c>
+      <c r="E92">
+        <v>-0.1008869458899232</v>
+      </c>
+      <c r="F92">
+        <v>-0.01395724778794347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01251291313880003</v>
+        <v>0.1498169446368473</v>
       </c>
       <c r="C93">
-        <v>-0.02192783424717011</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.02562129202493006</v>
+      </c>
+      <c r="D93">
+        <v>-0.2676036408209149</v>
+      </c>
+      <c r="E93">
+        <v>-0.07770820056324426</v>
+      </c>
+      <c r="F93">
+        <v>0.002604321606283001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.03998273445646644</v>
+        <v>0.1319314637844829</v>
       </c>
       <c r="C94">
-        <v>-0.1594331051296095</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02453604160349672</v>
+      </c>
+      <c r="D94">
+        <v>0.04269667272544524</v>
+      </c>
+      <c r="E94">
+        <v>0.05836940576757459</v>
+      </c>
+      <c r="F94">
+        <v>0.03753125872268284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.02408495298927935</v>
+        <v>0.1254605107655004</v>
       </c>
       <c r="C95">
-        <v>-0.1453856622949082</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.004428513135803585</v>
+      </c>
+      <c r="D95">
+        <v>0.09118328022417002</v>
+      </c>
+      <c r="E95">
+        <v>0.04638897896270126</v>
+      </c>
+      <c r="F95">
+        <v>-0.01035989092257634</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9775723620298606</v>
+        <v>0.1043541945478054</v>
       </c>
       <c r="C96">
-        <v>-0.1909528387995691</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9879936899745085</v>
+      </c>
+      <c r="D96">
+        <v>-0.04157084486474927</v>
+      </c>
+      <c r="E96">
+        <v>0.0563306002596925</v>
+      </c>
+      <c r="F96">
+        <v>0.04263331323944941</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.002802711391410275</v>
+        <v>0.1918921458507971</v>
       </c>
       <c r="C97">
-        <v>-0.1714005717789152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.00848117328997419</v>
+      </c>
+      <c r="D97">
+        <v>-0.01674324894811016</v>
+      </c>
+      <c r="E97">
+        <v>0.01491589913454666</v>
+      </c>
+      <c r="F97">
+        <v>-0.09213531536571452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.02349139495316334</v>
+        <v>0.2058235805301416</v>
       </c>
       <c r="C98">
-        <v>-0.184522462318012</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.0074892434383118</v>
+      </c>
+      <c r="D98">
+        <v>0.008244235578509746</v>
+      </c>
+      <c r="E98">
+        <v>-0.08589851955715801</v>
+      </c>
+      <c r="F98">
+        <v>-0.09372585099430331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.003392364093268923</v>
+        <v>0.05580032793744862</v>
       </c>
       <c r="C99">
-        <v>-0.05527011675518888</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.004531256798634031</v>
+      </c>
+      <c r="D99">
+        <v>0.03927195782519629</v>
+      </c>
+      <c r="E99">
+        <v>0.02402343233081542</v>
+      </c>
+      <c r="F99">
+        <v>0.0003098406153050245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.005138847774306793</v>
+        <v>0.1276467818740595</v>
       </c>
       <c r="C100">
-        <v>-0.1679575783780375</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.05303490008564736</v>
+      </c>
+      <c r="D100">
+        <v>0.3460420538034464</v>
+      </c>
+      <c r="E100">
+        <v>-0.8890056889916338</v>
+      </c>
+      <c r="F100">
+        <v>-0.132918801843862</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01294328424646664</v>
+        <v>0.02711959516737877</v>
       </c>
       <c r="C101">
-        <v>-0.0310730153354185</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.008170562509757029</v>
+      </c>
+      <c r="D101">
+        <v>0.03267841010699563</v>
+      </c>
+      <c r="E101">
+        <v>0.01084925838870446</v>
+      </c>
+      <c r="F101">
+        <v>-0.01241888375985981</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
